--- a/信息工程系人名单网页版.xlsx
+++ b/信息工程系人名单网页版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9720"/>
+    <workbookView windowWidth="23040" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>序号</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>杨硕</t>
+  </si>
+  <si>
+    <t>石洁</t>
+  </si>
+  <si>
+    <t>谢燕红</t>
+  </si>
+  <si>
+    <t>见习岗</t>
+  </si>
+  <si>
+    <t>雷凯杰</t>
+  </si>
+  <si>
+    <t>张鑫宇</t>
   </si>
 </sst>
 </file>
@@ -1363,10 +1378,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="4"/>
@@ -1374,7 +1389,8 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="13.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1765,6 +1781,64 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/信息工程系人名单网页版.xlsx
+++ b/信息工程系人名单网页版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10308"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>序号</t>
   </si>
@@ -138,12 +138,6 @@
   </si>
   <si>
     <t>见习岗</t>
-  </si>
-  <si>
-    <t>雷凯杰</t>
-  </si>
-  <si>
-    <t>张鑫宇</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="4"/>
@@ -1809,36 +1803,7 @@
       </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="9">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="9"/>
-    </row>
+    <row r="37" ht="14.4"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/信息工程系人名单网页版.xlsx
+++ b/信息工程系人名单网页版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="23040" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>见习岗</t>
+  </si>
+  <si>
+    <t>高思航</t>
+  </si>
+  <si>
+    <t>赵君杰</t>
+  </si>
+  <si>
+    <t>临聘</t>
   </si>
 </sst>
 </file>
@@ -317,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +335,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,6 +359,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -529,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -563,6 +590,21 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -689,7 +731,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,119 +743,119 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,9 +874,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -845,6 +884,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,10 +1423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="4"/>
@@ -1402,408 +1453,435 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="9">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="9">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="9">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="9">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="9">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="9">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="9">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="9">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="9">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="9">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="9">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="9">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="37" ht="14.4"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/信息工程系人名单网页版.xlsx
+++ b/信息工程系人名单网页版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10308"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -77,9 +77,6 @@
     <t>王红</t>
   </si>
   <si>
-    <t>吴瑞芳</t>
-  </si>
-  <si>
     <t>徐惠芳</t>
   </si>
   <si>
@@ -137,7 +134,7 @@
     <t>谢燕红</t>
   </si>
   <si>
-    <t>见习岗</t>
+    <t>外聘（见习岗）</t>
   </si>
   <si>
     <t>高思航</t>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>临聘</t>
+  </si>
+  <si>
+    <t>贾霖霖</t>
   </si>
 </sst>
 </file>
@@ -326,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,12 +354,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +725,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,16 +749,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -773,94 +767,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -877,26 +874,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1425,84 +1413,93 @@
   <sheetPr/>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:J38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="27.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1512,375 +1509,433 @@
         <v>8</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="7">
+        <v>6</v>
+      </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="7">
+        <v>7</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7">
+        <v>8</v>
+      </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7">
+        <v>9</v>
+      </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="7">
+        <v>10</v>
+      </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7">
+        <v>11</v>
+      </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="7">
+        <v>12</v>
+      </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="7">
+        <v>13</v>
+      </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="7">
+        <v>14</v>
+      </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="7">
+        <v>15</v>
+      </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9">
         <v>3</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="B22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="9">
+        <v>5</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="9">
+        <v>6</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="9">
+        <v>7</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="9">
         <v>8</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5">
+      <c r="D27" s="9">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="D28" s="9">
+        <v>10</v>
+      </c>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="B29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="9">
+        <v>11</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="B30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="9">
+        <v>12</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="B31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="9">
+        <v>13</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="10"/>
+      <c r="D32" s="9">
+        <v>14</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
